--- a/morning_201224/tran_analysis_0.xlsx
+++ b/morning_201224/tran_analysis_0.xlsx
@@ -75840,14 +75840,14 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>52.24%</t>
         </is>
       </c>
     </row>
